--- a/Data Chatbot generative untuk RNN.xlsx
+++ b/Data Chatbot generative untuk RNN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\SkripsiVALaptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B4E20A-34C5-42BF-8850-11BDBDCEFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CCC5D5-99F2-454E-A12F-FA4B82107DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="634">
   <si>
     <t>Human Chat</t>
   </si>
@@ -1206,9 +1206,6 @@
     <t>Apakah VRAM 6GB cukup untuk bermain game 1080p ?</t>
   </si>
   <si>
-    <t>Link Laptop</t>
-  </si>
-  <si>
     <t>Apakah VRAM 8GB cukup untuk bermain game 1080p ?</t>
   </si>
   <si>
@@ -1729,13 +1726,214 @@
   </si>
   <si>
     <t>Maaf bot akan mencari informasi baru</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/rekomendasi/2756312948?ref=googleshopping&amp;c=17028976041&amp;m=468324008&amp;p=2756312948&amp;gclid=CjwKCAjw7vuUBhBUEiwAEdu2pNBrLCB0ErwxxikD-rCWKafi39NgcFIt8l334bUjdkWpX71UB9GqHhoChygQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-rog-zephyrus-g14-ga401qh-r765b6t-o-eclipse-gray-sku3337451744</t>
+  </si>
+  <si>
+    <t>https://shopee.co.id/ASUS-ROG-ZEPHYRUS-GA401QH-R765B6W-O-Ryzen-7-5800HS-8GB-512GB-1650-W10-i.710483729.17540248795?gclid=CjwKCAjw7vuUBhBUEiwAEdu2pObK8Xi8MctPIUuUcM4oXyJvLTfGmuDCLKgt5OOznCxB4vvPOUE2ABoCUf4QAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-notebook-a409ma-fhd422-sku0021784261</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-notebook-a416mao-hd421-sku0021784067</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-notebook-br1100cka-gj0410t-sku0022951559</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-notebook-br1100fka-bp0410t-sku0022951753</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-notebook-p1411cma-bv349t-sku0022953596</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-notebook-x441ma-ga031t-sku0022898500</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-rog-strix-g15-g513ih-r765b6t-o-metal-black-sku3337662525</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/asus-rog-zephyrus-m16-gu603hm-i736g6t-o-core-i7-11800h16gb1tb-ssdvga-6gb16win-10-homeohs-2019off-black-sku0021913562</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/laptop-asus-notebook-a413ep-vips751-sku0017300242</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-gs66-stealth-10ue-9s7-16v312-298-black-sku3336741995</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-gs66-stealth-10ug-9s7-16v312-253-black-sku3336740928</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-gs66-stealth-11ue-9s7-16v412-619-core-black-sku3337875052</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-notebook-gf63-10scsr-sku0013595133</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-notebook-gf63-9scsr-sku0013594842</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-notebook-gf63-9scxr-sku0013980708</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-stealth-15m-a11uek-9s7-156311-208-black-sku3337026011</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-stealth-15m-a11uek-9s7-156312-210-white-sku3337751765</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-gs75-stealth-10sfs-9s7-17g311-407-sku3331839809</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-gs75-stealth-9sg-9s7-17g111-1058-black-sku3327415154</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/msi-notebook-gf65-10sdr-sku0013595424</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/laptop-acer-sku0025143565</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/acer-aspire-3-slim-a315-35-c0uj-celeron-n5100-4gb-256gb-ssd-win-11-home-pure-silver-sku3338173521</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/acer-aspire-a314-22-a667-amd-3020e-4gb-256gb-ssd-black-sku3337982625</t>
+  </si>
+  <si>
+    <t>https://store.acer.com/en-id/nitro-5-an515-56-nh-qbzsn-001?gclid=CjwKCAjw7vuUBhBUEiwAEdu2pEnCOcOePWfFyg7pdHSsJsMSzNqaTTAgUJpQ8x0238uji15CIcj-iRoCArEQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/acer-predator-triton-500-pt515-51-713v-nhq50sn002-sku3324066520</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/acer-predator-triton-500-pt515-51-nhq4wsn001-sku3323667365</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/rekomendasi/3157723606?ref=googleshopping&amp;c=17028976041&amp;m=363450570&amp;p=3157723606&amp;gclid=CjwKCAjw7vuUBhBUEiwAEdu2pEIvbJKhBtioex_CPR0Au5kYmn6_FX-tW-gOnXYSOFpPsHZFl6_C8hoCG8oQAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-ideapad-3-14iml05-sku0025838279</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-legion-5-15ach6-82jw00dyid-phantom-blue-sku3338182154</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-legion-5-15arh05h-82b100a6id-phantom-black-sku3336709888</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-legion-5p-15imh05h-82aw006kid-iron-grey-sku3336660224</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-legion-7-16achg6-82n6009uid-strom-grey-sku3337473666</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-legion-s7-15ach6-82k8002xid-shadow-black-sku3338090004</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-notebook-ip3-49id-sku0021792991</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/lenovo-notebook-v14ada-9did-sku0021792215</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf2032tx-sku0022963587</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf2033tx-sku0023033233</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf2075tu-sku0023040993</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf2076tu-sku0022964266</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf3018tx-sku0022962714</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf3034tx-sku0022964460</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf3039tu-sku0022956700</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf3040tu-sku0023036434</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf3076tu-sku0023035755</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-dq2052tu-sku0023040605</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-dq2053tu-sku0022963975</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-dq2055tu-sku0022958155</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-fq0014au-sku0022957670</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-fq0021au-sku0023041963</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-15s-fq2503tu-sku0022964169</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-notebook-14s-cf3040tu-sku0013995064</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/notebook-hp-245-1u3w0pa-sku0022965430</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/omen-laptop-15-ek0044tx-sku0022961162</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/omen-laptop-15-en0013ax-sku0022965818</t>
+  </si>
+  <si>
+    <t>https://www.bhinneka.com/hp-laptop-14s-cf2034tx-sku0023038180</t>
+  </si>
+  <si>
+    <t>Ketik ASUS untuk mendapatkan gambaran tentang laptop bermerek ASUS</t>
+  </si>
+  <si>
+    <t>Ketik MSI untuk mendapatkan gambaran tentang laptop bermerek MSI</t>
+  </si>
+  <si>
+    <t>Ketik Acer untuk mendapatkan gambaran tentang laptop bermerek Acer</t>
+  </si>
+  <si>
+    <t>Ketik Lenovo untuk mendapatkan gambaran tentang laptop bermerek Lenovo</t>
+  </si>
+  <si>
+    <t>Ketik HP untuk mendapatkan gambaran tentang laptop bermerek HP</t>
+  </si>
+  <si>
+    <t>https://www.hp.com/id-id/shop/laptops-tablets/personal-laptops/omen-laptops.html</t>
+  </si>
+  <si>
+    <t>https://www.hp.com/id-id/shop/laptops-tablets/personal-laptops/victus-laptops.html</t>
+  </si>
+  <si>
+    <t>https://www.tokopedia.com/rekomendasi/3369902548?ref=googleshopping&amp;c=17028976041&amp;m=122706502&amp;p=3369902548&amp;gclid=CjwKCAjw7vuUBhBUEiwAEdu2pFb4w2kPSnSBKmRnX0ykyxyV7N4gLZlmYBvoty33PfSSpzCGKKUt4RoCrH8QAvD_BwE&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>https://www.lenovo.com/id/in/laptops/legion/legion-5-series/Legion-5-Pro-16ACH6H/p/WMD00000468?orgRef=https%253A%252F%252Fwww.google.com%252F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,6 +1951,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF121212"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1775,17 +1987,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2066,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="C400" sqref="C400"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C274" sqref="C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2151,7 +2366,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2192,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2214,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -2228,7 +2443,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2258,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
@@ -2291,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -2360,7 +2575,7 @@
         <v>168</v>
       </c>
       <c r="C26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2382,7 +2597,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2437,7 +2652,7 @@
         <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2503,7 +2718,7 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2635,7 +2850,7 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2668,7 +2883,7 @@
         <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2756,7 +2971,7 @@
         <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2866,7 +3081,7 @@
         <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -3064,7 +3279,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -3218,7 +3433,7 @@
         <v>132</v>
       </c>
       <c r="C104" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -3515,7 +3730,7 @@
         <v>225</v>
       </c>
       <c r="C131" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -4626,7 +4841,7 @@
         <v>357</v>
       </c>
       <c r="C232" t="s">
-        <v>393</v>
+        <v>567</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -4636,8 +4851,8 @@
       <c r="B233" t="s">
         <v>358</v>
       </c>
-      <c r="C233" t="s">
-        <v>393</v>
+      <c r="C233" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4648,7 +4863,7 @@
         <v>359</v>
       </c>
       <c r="C234" t="s">
-        <v>393</v>
+        <v>574</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -4659,7 +4874,7 @@
         <v>360</v>
       </c>
       <c r="C235" t="s">
-        <v>393</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -4670,7 +4885,7 @@
         <v>361</v>
       </c>
       <c r="C236" t="s">
-        <v>393</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -4681,7 +4896,7 @@
         <v>362</v>
       </c>
       <c r="C237" t="s">
-        <v>393</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4691,8 +4906,8 @@
       <c r="B238" t="s">
         <v>360</v>
       </c>
-      <c r="C238" t="s">
-        <v>393</v>
+      <c r="C238" s="3" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -4703,7 +4918,7 @@
         <v>363</v>
       </c>
       <c r="C239" t="s">
-        <v>393</v>
+        <v>572</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -4714,7 +4929,7 @@
         <v>364</v>
       </c>
       <c r="C240" t="s">
-        <v>393</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -4725,7 +4940,7 @@
         <v>298</v>
       </c>
       <c r="C241" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4736,7 +4951,7 @@
         <v>299</v>
       </c>
       <c r="C242" t="s">
-        <v>393</v>
+        <v>568</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4747,7 +4962,7 @@
         <v>300</v>
       </c>
       <c r="C243" t="s">
-        <v>393</v>
+        <v>577</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4758,7 +4973,7 @@
         <v>316</v>
       </c>
       <c r="C244" t="s">
-        <v>393</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4769,7 +4984,7 @@
         <v>301</v>
       </c>
       <c r="C245" t="s">
-        <v>393</v>
+        <v>589</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4780,7 +4995,7 @@
         <v>302</v>
       </c>
       <c r="C246" t="s">
-        <v>393</v>
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4791,7 +5006,7 @@
         <v>303</v>
       </c>
       <c r="C247" t="s">
-        <v>393</v>
+        <v>583</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4802,7 +5017,7 @@
         <v>304</v>
       </c>
       <c r="C248" t="s">
-        <v>393</v>
+        <v>582</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4813,7 +5028,7 @@
         <v>303</v>
       </c>
       <c r="C249" t="s">
-        <v>393</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4824,7 +5039,7 @@
         <v>305</v>
       </c>
       <c r="C250" t="s">
-        <v>393</v>
+        <v>585</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4835,7 +5050,7 @@
         <v>306</v>
       </c>
       <c r="C251" t="s">
-        <v>393</v>
+        <v>586</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4846,7 +5061,7 @@
         <v>307</v>
       </c>
       <c r="C252" t="s">
-        <v>393</v>
+        <v>587</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4857,7 +5072,7 @@
         <v>308</v>
       </c>
       <c r="C253" t="s">
-        <v>393</v>
+        <v>588</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4868,7 +5083,7 @@
         <v>309</v>
       </c>
       <c r="C254" t="s">
-        <v>393</v>
+        <v>580</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4879,7 +5094,7 @@
         <v>310</v>
       </c>
       <c r="C255" t="s">
-        <v>393</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4890,7 +5105,7 @@
         <v>311</v>
       </c>
       <c r="C256" t="s">
-        <v>393</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4901,7 +5116,7 @@
         <v>312</v>
       </c>
       <c r="C257" t="s">
-        <v>393</v>
+        <v>581</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4912,7 +5127,7 @@
         <v>315</v>
       </c>
       <c r="C258" t="s">
-        <v>393</v>
+        <v>590</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4923,7 +5138,7 @@
         <v>317</v>
       </c>
       <c r="C259" t="s">
-        <v>393</v>
+        <v>595</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4934,7 +5149,7 @@
         <v>318</v>
       </c>
       <c r="C260" t="s">
-        <v>393</v>
+        <v>594</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4945,7 +5160,7 @@
         <v>319</v>
       </c>
       <c r="C261" t="s">
-        <v>393</v>
+        <v>592</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4956,7 +5171,7 @@
         <v>320</v>
       </c>
       <c r="C262" t="s">
-        <v>393</v>
+        <v>591</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4967,7 +5182,7 @@
         <v>321</v>
       </c>
       <c r="C263" t="s">
-        <v>393</v>
+        <v>593</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -4978,7 +5193,7 @@
         <v>322</v>
       </c>
       <c r="C264" t="s">
-        <v>393</v>
+        <v>596</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4989,7 +5204,7 @@
         <v>324</v>
       </c>
       <c r="C265" t="s">
-        <v>393</v>
+        <v>604</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -5000,7 +5215,7 @@
         <v>325</v>
       </c>
       <c r="C266" t="s">
-        <v>393</v>
+        <v>603</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -5011,7 +5226,7 @@
         <v>326</v>
       </c>
       <c r="C267" t="s">
-        <v>393</v>
+        <v>600</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -5022,7 +5237,7 @@
         <v>327</v>
       </c>
       <c r="C268" t="s">
-        <v>393</v>
+        <v>602</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -5033,7 +5248,7 @@
         <v>328</v>
       </c>
       <c r="C269" t="s">
-        <v>393</v>
+        <v>599</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -5044,7 +5259,7 @@
         <v>329</v>
       </c>
       <c r="C270" t="s">
-        <v>393</v>
+        <v>601</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -5055,7 +5270,7 @@
         <v>330</v>
       </c>
       <c r="C271" t="s">
-        <v>393</v>
+        <v>598</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -5066,7 +5281,7 @@
         <v>331</v>
       </c>
       <c r="C272" t="s">
-        <v>393</v>
+        <v>597</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -5077,7 +5292,7 @@
         <v>388</v>
       </c>
       <c r="C273" t="s">
-        <v>393</v>
+        <v>632</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -5088,7 +5303,7 @@
         <v>387</v>
       </c>
       <c r="C274" t="s">
-        <v>393</v>
+        <v>633</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -5099,7 +5314,7 @@
         <v>386</v>
       </c>
       <c r="C275" t="s">
-        <v>393</v>
+        <v>616</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -5110,7 +5325,7 @@
         <v>385</v>
       </c>
       <c r="C276" t="s">
-        <v>393</v>
+        <v>615</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -5121,7 +5336,7 @@
         <v>381</v>
       </c>
       <c r="C277" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -5132,7 +5347,7 @@
         <v>384</v>
       </c>
       <c r="C278" t="s">
-        <v>393</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -5143,7 +5358,7 @@
         <v>383</v>
       </c>
       <c r="C279" t="s">
-        <v>393</v>
+        <v>612</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -5154,7 +5369,7 @@
         <v>382</v>
       </c>
       <c r="C280" t="s">
-        <v>393</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -5165,7 +5380,7 @@
         <v>381</v>
       </c>
       <c r="C281" t="s">
-        <v>393</v>
+        <v>614</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -5175,8 +5390,8 @@
       <c r="B282" t="s">
         <v>372</v>
       </c>
-      <c r="C282" t="s">
-        <v>393</v>
+      <c r="C282" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -5187,7 +5402,7 @@
         <v>380</v>
       </c>
       <c r="C283" t="s">
-        <v>393</v>
+        <v>607</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -5197,8 +5412,8 @@
       <c r="B284" t="s">
         <v>379</v>
       </c>
-      <c r="C284" t="s">
-        <v>393</v>
+      <c r="C284" s="3" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -5209,7 +5424,7 @@
         <v>378</v>
       </c>
       <c r="C285" t="s">
-        <v>393</v>
+        <v>617</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -5220,7 +5435,7 @@
         <v>377</v>
       </c>
       <c r="C286" t="s">
-        <v>393</v>
+        <v>606</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -5231,7 +5446,7 @@
         <v>376</v>
       </c>
       <c r="C287" t="s">
-        <v>393</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -5242,7 +5457,7 @@
         <v>375</v>
       </c>
       <c r="C288" t="s">
-        <v>393</v>
+        <v>621</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -5253,7 +5468,7 @@
         <v>374</v>
       </c>
       <c r="C289" t="s">
-        <v>393</v>
+        <v>623</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -5264,7 +5479,7 @@
         <v>374</v>
       </c>
       <c r="C290" t="s">
-        <v>393</v>
+        <v>623</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -5275,7 +5490,7 @@
         <v>373</v>
       </c>
       <c r="C291" t="s">
-        <v>393</v>
+        <v>618</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -5286,7 +5501,7 @@
         <v>372</v>
       </c>
       <c r="C292" t="s">
-        <v>393</v>
+        <v>613</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -5297,7 +5512,7 @@
         <v>371</v>
       </c>
       <c r="C293" t="s">
-        <v>393</v>
+        <v>624</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -5308,7 +5523,7 @@
         <v>370</v>
       </c>
       <c r="C294" t="s">
-        <v>393</v>
+        <v>620</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -5319,7 +5534,7 @@
         <v>369</v>
       </c>
       <c r="C295" t="s">
-        <v>393</v>
+        <v>608</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -5330,7 +5545,7 @@
         <v>368</v>
       </c>
       <c r="C296" t="s">
-        <v>393</v>
+        <v>609</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -5341,7 +5556,7 @@
         <v>367</v>
       </c>
       <c r="C297" t="s">
-        <v>393</v>
+        <v>622</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -5352,7 +5567,7 @@
         <v>366</v>
       </c>
       <c r="C298" t="s">
-        <v>393</v>
+        <v>630</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -5363,7 +5578,7 @@
         <v>365</v>
       </c>
       <c r="C299" t="s">
-        <v>393</v>
+        <v>631</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -5374,7 +5589,7 @@
         <v>389</v>
       </c>
       <c r="C300" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -5385,7 +5600,7 @@
         <v>390</v>
       </c>
       <c r="C301" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -5396,7 +5611,7 @@
         <v>391</v>
       </c>
       <c r="C302" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -5407,7 +5622,7 @@
         <v>392</v>
       </c>
       <c r="C303" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -5415,10 +5630,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
+        <v>393</v>
+      </c>
+      <c r="C304" t="s">
         <v>394</v>
-      </c>
-      <c r="C304" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -5426,10 +5641,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C305" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -5437,10 +5652,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C306" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -5448,10 +5663,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
+        <v>401</v>
+      </c>
+      <c r="C307" t="s">
         <v>402</v>
-      </c>
-      <c r="C307" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -5459,10 +5674,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
+        <v>403</v>
+      </c>
+      <c r="C308" t="s">
         <v>404</v>
-      </c>
-      <c r="C308" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -5470,10 +5685,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
+        <v>405</v>
+      </c>
+      <c r="C309" t="s">
         <v>406</v>
-      </c>
-      <c r="C309" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -5481,10 +5696,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
+        <v>407</v>
+      </c>
+      <c r="C310" t="s">
         <v>408</v>
-      </c>
-      <c r="C310" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -5492,10 +5707,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
+        <v>409</v>
+      </c>
+      <c r="C311" t="s">
         <v>410</v>
-      </c>
-      <c r="C311" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -5503,10 +5718,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
+        <v>412</v>
+      </c>
+      <c r="C312" t="s">
         <v>413</v>
-      </c>
-      <c r="C312" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -5514,10 +5729,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C313" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -5525,10 +5740,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C314" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -5536,10 +5751,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C315" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -5547,10 +5762,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
+        <v>417</v>
+      </c>
+      <c r="C316" t="s">
         <v>418</v>
-      </c>
-      <c r="C316" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -5558,10 +5773,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
+        <v>419</v>
+      </c>
+      <c r="C317" t="s">
         <v>420</v>
-      </c>
-      <c r="C317" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -5569,10 +5784,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
+        <v>421</v>
+      </c>
+      <c r="C318" t="s">
         <v>422</v>
-      </c>
-      <c r="C318" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -5580,10 +5795,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
+        <v>423</v>
+      </c>
+      <c r="C319" t="s">
         <v>424</v>
-      </c>
-      <c r="C319" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -5591,10 +5806,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
+        <v>425</v>
+      </c>
+      <c r="C320" t="s">
         <v>426</v>
-      </c>
-      <c r="C320" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -5602,10 +5817,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C321" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -5613,10 +5828,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C322" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -5624,10 +5839,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C323" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -5635,10 +5850,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C324" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -5646,10 +5861,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
+        <v>433</v>
+      </c>
+      <c r="C325" t="s">
         <v>434</v>
-      </c>
-      <c r="C325" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -5657,10 +5872,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
+        <v>435</v>
+      </c>
+      <c r="C326" t="s">
         <v>436</v>
-      </c>
-      <c r="C326" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -5668,10 +5883,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C327" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -5679,10 +5894,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C328" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -5690,10 +5905,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C329" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -5701,10 +5916,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
+        <v>446</v>
+      </c>
+      <c r="C330" t="s">
         <v>447</v>
-      </c>
-      <c r="C330" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -5712,10 +5927,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C331" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -5723,10 +5938,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C332" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -5734,7 +5949,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C333" t="s">
         <v>212</v>
@@ -5745,10 +5960,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C334" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -5756,7 +5971,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C335" t="s">
         <v>226</v>
@@ -5767,7 +5982,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C336" t="s">
         <v>266</v>
@@ -5778,10 +5993,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C337" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -5789,10 +6004,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C338" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -5800,10 +6015,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C339" t="s">
-        <v>281</v>
+        <v>625</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -5811,10 +6026,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C340" t="s">
-        <v>283</v>
+        <v>626</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -5822,10 +6037,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C341" t="s">
-        <v>285</v>
+        <v>627</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -5833,10 +6048,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C342" t="s">
-        <v>287</v>
+        <v>628</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -5844,10 +6059,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C343" t="s">
-        <v>289</v>
+        <v>629</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -5855,10 +6070,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
+        <v>476</v>
+      </c>
+      <c r="C344" t="s">
         <v>477</v>
-      </c>
-      <c r="C344" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -5866,10 +6081,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C345" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -5877,10 +6092,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C346" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -5888,10 +6103,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
+        <v>480</v>
+      </c>
+      <c r="C347" t="s">
         <v>481</v>
-      </c>
-      <c r="C347" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -5899,10 +6114,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C348" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -5910,10 +6125,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
+        <v>483</v>
+      </c>
+      <c r="C349" t="s">
         <v>484</v>
-      </c>
-      <c r="C349" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -5921,10 +6136,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C350" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -5932,7 +6147,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C351" t="s">
         <v>245</v>
@@ -5943,7 +6158,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C352" t="s">
         <v>251</v>
@@ -5954,7 +6169,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C353" t="s">
         <v>248</v>
@@ -5965,7 +6180,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C354" t="s">
         <v>250</v>
@@ -5976,7 +6191,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C355" t="s">
         <v>253</v>
@@ -5987,10 +6202,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
+        <v>487</v>
+      </c>
+      <c r="C356" t="s">
         <v>488</v>
-      </c>
-      <c r="C356" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -5998,10 +6213,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C357" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6009,10 +6224,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C358" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6020,10 +6235,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C359" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6031,10 +6246,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C360" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6042,10 +6257,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C361" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6053,10 +6268,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C362" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6064,10 +6279,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C363" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6075,10 +6290,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C364" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6086,10 +6301,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C365" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6097,10 +6312,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C366" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6108,10 +6323,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C367" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6119,10 +6334,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C368" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6130,10 +6345,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C369" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6141,10 +6356,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C370" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6152,10 +6367,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C371" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6163,10 +6378,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C372" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6174,10 +6389,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C373" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6185,10 +6400,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C374" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6196,10 +6411,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C375" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6207,10 +6422,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C376" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6218,10 +6433,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C377" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6229,10 +6444,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C378" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6240,10 +6455,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C379" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6251,10 +6466,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C380" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6262,10 +6477,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
+        <v>538</v>
+      </c>
+      <c r="C381" t="s">
         <v>539</v>
-      </c>
-      <c r="C381" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6273,10 +6488,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C382" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6284,10 +6499,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C383" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6295,10 +6510,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C384" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6306,10 +6521,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C385" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6317,10 +6532,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C386" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6328,10 +6543,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C387" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6339,10 +6554,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
+        <v>548</v>
+      </c>
+      <c r="C388" t="s">
         <v>549</v>
-      </c>
-      <c r="C388" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6350,10 +6565,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C389" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -6361,10 +6576,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
+        <v>552</v>
+      </c>
+      <c r="C390" t="s">
         <v>553</v>
-      </c>
-      <c r="C390" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -6372,10 +6587,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
+        <v>554</v>
+      </c>
+      <c r="C391" t="s">
         <v>555</v>
-      </c>
-      <c r="C391" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -6383,7 +6598,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C392" t="s">
         <v>218</v>
@@ -6394,10 +6609,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
+        <v>557</v>
+      </c>
+      <c r="C393" t="s">
         <v>558</v>
-      </c>
-      <c r="C393" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -6405,10 +6620,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C394" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -6416,10 +6631,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C395" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -6427,10 +6642,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C396" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -6438,10 +6653,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C397" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -6460,10 +6675,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C399" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -6471,10 +6686,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C400" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -6482,17 +6697,23 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
+        <v>565</v>
+      </c>
+      <c r="C401" t="s">
         <v>566</v>
-      </c>
-      <c r="C401" t="s">
-        <v>567</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C336">
     <sortCondition ref="A1:A336"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="C233" r:id="rId1" xr:uid="{AB41161D-6A3D-4BA4-B90A-C355B4AF3A4B}"/>
+    <hyperlink ref="C238" r:id="rId2" xr:uid="{EA54BCF7-DF81-4923-B8EF-0C4DB0C727F4}"/>
+    <hyperlink ref="C284" r:id="rId3" xr:uid="{A3A85B56-67C9-4C8A-91C1-14015CE48FE4}"/>
+    <hyperlink ref="C282" r:id="rId4" xr:uid="{E4B55B3A-D6EC-4BCF-9DC0-6F8413BED6D4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Data Chatbot generative untuk RNN.xlsx
+++ b/Data Chatbot generative untuk RNN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\SkripsiVALaptop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CCC5D5-99F2-454E-A12F-FA4B82107DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A665B3-9276-41BD-8E3A-397BC4BBA03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="569">
   <si>
     <t>Human Chat</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Apa perbedaannya dengan Intel HD dan Intel UMA ?</t>
   </si>
   <si>
-    <t>Merek laptop apa yang terbaik?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Karena laptop bisa hampir menyerupai komputer dan terkadang harga laptop bisa lebih mahal daripada komputer </t>
   </si>
   <si>
@@ -138,69 +135,15 @@
     <t>Apa maksudnya itu Intel UMA ?</t>
   </si>
   <si>
-    <t>Apa laptop terbaik untuk bermain game?</t>
-  </si>
-  <si>
     <t>Apa laptop terbaik yang bisa saya beli sebagai mahasiswa Computer Science atau Teknik Informatika ?</t>
   </si>
   <si>
-    <t>Apa laptop terbaik?</t>
-  </si>
-  <si>
-    <t>Secara umum, mana yang lebih baik, desktop atau laptop?</t>
-  </si>
-  <si>
     <t>Laptop mana yang sebaiknya Anda pilih antara Dell dan HP?</t>
   </si>
   <si>
-    <t>Mana yang lebih baik untuk bermain game, laptop atau komputer?</t>
-  </si>
-  <si>
-    <t>Apa yang harus saya ketahui sebelum membeli laptop?</t>
-  </si>
-  <si>
-    <t>Laptop mana yang terbaik: HP atau Lenovo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apa laptop terbaik untuk desainer grafis? </t>
-  </si>
-  <si>
     <t>Apa laptop terbaik untuk pengembang atau developers ?</t>
   </si>
   <si>
-    <t>Apa laptop terbaik untuk mahasiswa Ilmu Komputer dan Teknik?</t>
-  </si>
-  <si>
-    <t>Apakah MSI merek laptop yang bagus?</t>
-  </si>
-  <si>
-    <t>Saya akan membeli laptop gaming MSI tetapi saya dengar laptop itu mudah rusak. Orang-orang juga mengatakan bahwa mereka menggunakan suku cadang yang murah. Apakah itu benar? Jika bukan MSI lalu perusahaan mana yang menjadi pengganti terbaik?</t>
-  </si>
-  <si>
-    <t>Mana yang lebih baik untuk gaming laptop Asus ROG atau Msi?</t>
-  </si>
-  <si>
-    <t>Apakah predator Acer atau laptop MSI yang terbaik untuk bermain game?</t>
-  </si>
-  <si>
-    <t>Apakah MSI lebih baik dari Acer?</t>
-  </si>
-  <si>
-    <t>Manakah laptop terbaik untuk gaming di antara Asus, Alienware, Acer, Omen, dan MSI?</t>
-  </si>
-  <si>
-    <t>Untuk gaming, mana yang terbaik, laptop Acer atau laptop MSI?</t>
-  </si>
-  <si>
-    <t>Apa keandalan laptop MSI?</t>
-  </si>
-  <si>
-    <t>Manakah laptop gaming MSI terbaik?</t>
-  </si>
-  <si>
-    <t>Apakah MSI membuat GPU gaming yang bagus?</t>
-  </si>
-  <si>
     <t>Coba Acer Predator Triton 500 dengan RTX 2060</t>
   </si>
   <si>
@@ -210,9 +153,6 @@
     <t>Berdasarkan dari informasi FaceBook Computer Science di MIT , Jawabannya adalah antara MacOS dan Lenovo. Namun dari data tersebut kami hanya bisa melakukan rekomendasi Lenovo</t>
   </si>
   <si>
-    <t>Anda menginginkan laptop untuk hal-hal normal seperti pekerjaan excel, email, internet dll gunakan laptop Lenovo, Untuk Gaming gunakan Asus atau Acer.</t>
-  </si>
-  <si>
     <t>Maaf Dell kurang direkomendasikan disini</t>
   </si>
   <si>
@@ -252,21 +192,12 @@
     <t>Acer dan MSI sama-sama bagus untuk bermain game</t>
   </si>
   <si>
-    <t>Laptop terbaik MSI adalah (Jawaban Laptop MSI sesuai data)</t>
-  </si>
-  <si>
     <t>Untuk GPU, iya Silahkan dengan Laptop MSI.</t>
   </si>
   <si>
-    <t>ASUS TUF adalah merek kelas menengah yang berorientasi pada desain dan keandalan yang kokoh. Desainnya umumnya abu-abu dengan highlight kuning. ASUS ROG adalah merek "game" premium dengan fokus pada overclocking ekstrim, banyak pencahayaan RGB (kebanyakan ungu), dan banyak cat abu-abu gelap dan hitam.</t>
-  </si>
-  <si>
     <t>Laptop ROG memiliki lebih dari sekadar prosesor dan tampilan yang menakjubkan. Mereka dibuat hanya untuk game. Mereka telah menginstal banyak perangkat lunak canggih untuk meningkatkan pengalaman bermain game Anda. Mereka memiliki lampu RGB yang tampak luar biasa bahkan di dekat ventilasi bawah. Harga tinggi hanya untuk tampilan game yang lebih canggih. Ini layak hanya jika Anda merasa layak. Jika Anda menemukan RGB di ROG itu layak, maka Anda akan menyukainya. Kalau tidak, dari pandangan saya, saya akan mengatakan mereka tidak layak. Cukup gunakan HP Pavilion, gaming ideapad Lenovo, atau seri TUF. Mereka juga luar biasa. Anda tidak akan menyesal membelinya.</t>
   </si>
   <si>
-    <t>Laptop gaming ROG (Jawaban sesuai dengan data)</t>
-  </si>
-  <si>
     <t>Untuk ASUS dan Lenovo, Jika Anda benar-benar bersikeras untuk memilih di antara keduanya dan mencari rig gaming portabel, saya akan menyarankan Asus ROG. Jika Anda menginginkan unit hiburan dengan sedikit fokus pada game, Anda dapat memilih Lenovo Y series atau Lenovo Predator.</t>
   </si>
   <si>
@@ -375,12 +306,6 @@
     <t>Merek laptop mana yang harus saya pilih: LENOVO atau ASUS?</t>
   </si>
   <si>
-    <t>Apa pendapat Anda tentang laptop Lenovo?</t>
-  </si>
-  <si>
-    <t>Ukuran layar laptop yang diperlukan berapa ya?</t>
-  </si>
-  <si>
     <t>Ukuran laptop yang dapat dilakukan di rumah apa ya?</t>
   </si>
   <si>
@@ -396,9 +321,6 @@
     <t>Merek laptop apa yang dapat digunakan untuk gaming ?</t>
   </si>
   <si>
-    <t>Laptop apa yang terbaik untuk freelancer?</t>
-  </si>
-  <si>
     <t>Random Access Memory (RAM) itu apa ya ?</t>
   </si>
   <si>
@@ -417,87 +339,18 @@
     <t>Merek laptop apa yang dapat digunakan untuk kerja ?</t>
   </si>
   <si>
-    <t>Apa perbedaan antara Asus ROG dan Asus TUF?</t>
-  </si>
-  <si>
-    <t>Apakah Asus ROG Strix masih layak?</t>
-  </si>
-  <si>
     <t>Laptop gaming mana yang harus saya pilih di bawah $1000?</t>
   </si>
   <si>
-    <t>Apakah laptop gaming ASUS Republic of Gamers (ROG) berkualitas baik? Jika demikian, mengapa?</t>
-  </si>
-  <si>
-    <t>Apakah Asus ROG Zephyrus G14 layak dibeli?</t>
-  </si>
-  <si>
-    <t>Haruskah saya memilih Asus ROG atau Lenovo Legion?</t>
-  </si>
-  <si>
-    <t>Mana yang lebih baik, HP Omen atau ASUS ROG Strix?</t>
-  </si>
-  <si>
-    <t>Apakah Asus merek laptop yang bagus?</t>
-  </si>
-  <si>
     <t>itu menarik bagi saya karena saya ingin membuat beberapa ai</t>
   </si>
   <si>
-    <t>Laptop mana yang terbaik, Lenovo, HP, Acer, atau Dell?</t>
-  </si>
-  <si>
-    <t>Apakah Laptop Acer tahan lama?</t>
-  </si>
-  <si>
-    <t>Merek mana yang lebih baik antara HP, Asus, dan Acer secara keseluruhan?</t>
-  </si>
-  <si>
-    <t>Apakah komputer Asus lebih baik dari Acer?</t>
-  </si>
-  <si>
-    <t>Apakah Acer perusahaan yang baik untuk digunakan (laptop)?</t>
-  </si>
-  <si>
-    <t>Apakah laptop Acer Nitro 5 layak dibeli? Apakah mereka dapat diandalkan?</t>
-  </si>
-  <si>
-    <t>Berapa lama laptop Acer biasanya bertahan?</t>
-  </si>
-  <si>
-    <t>Laptop mana yang lebih baik, Lenovo, Dell, HP, Asus atau Acer?</t>
-  </si>
-  <si>
-    <t>Mengapa laptop Acer lebih murah dari yang lain?</t>
-  </si>
-  <si>
-    <t>Manakah laptop terbaik antara Lenovo, Acer dan HP?</t>
-  </si>
-  <si>
-    <t>Laptop mana yang lebih baik, HP, Dell atau Acer?</t>
-  </si>
-  <si>
-    <t>Mana yang lebih baik laptop, Acer atau HP?</t>
-  </si>
-  <si>
-    <t>Apakah laptop Acer bagus untuk bermain game?</t>
-  </si>
-  <si>
-    <t>Apa perbedaan antara laptop HP dan Acer?</t>
-  </si>
-  <si>
     <t>Untuk Gaming di Acer, Ya bisa untuk bermain game. Namun perlu ambil versi yang Predator untuk itu.</t>
   </si>
   <si>
     <t>Bagusan laptop MSI atau Acer ya untuk Gaming ?</t>
   </si>
   <si>
-    <t>Manakah laptop terbaik antara Acer dengan HP?</t>
-  </si>
-  <si>
-    <t>Bagaimana cara mengetahui speksifikasi laptop yang bagus?</t>
-  </si>
-  <si>
     <t>Merek Acer yang lebih bagus yang mana ya ?</t>
   </si>
   <si>
@@ -519,12 +372,6 @@
     <t>Apa yang membuat Asus ROG bagus ?</t>
   </si>
   <si>
-    <t>Apakah Asus ROG laptop gaming yang bagus?</t>
-  </si>
-  <si>
-    <t>Manakah laptop Asus ROG yang terbaik?</t>
-  </si>
-  <si>
     <t>Speksifikasi isi Laptop dan budget yang menentukan pemilihan laptop</t>
   </si>
   <si>
@@ -561,9 +408,6 @@
     <t>HP disarankan untuk kualitas jangka panjang dan Acer biasanya dari segi harga yang cenderung murah.</t>
   </si>
   <si>
-    <t>Mana yang lebih cocok untuk mahasiswa antara Core i5 dan AMD Ryzen 5?</t>
-  </si>
-  <si>
     <t>Tergantung kebutuhan mahasiswa. Secara umum Intel Core i5 sudah lebih baik, AMD Ryzen 5 digunakan untuk aktivitas berat.</t>
   </si>
   <si>
@@ -585,9 +429,6 @@
     <t>Intel secara jangka panjang</t>
   </si>
   <si>
-    <t>Adakah produsen GPU kartu grafis selain AMD, NVidia dan Intel?</t>
-  </si>
-  <si>
     <t>Untuk sekarang ini AMD, Nvidia, dan Intel tergolong baik untuk grafik dan GPU</t>
   </si>
   <si>
@@ -597,9 +438,6 @@
     <t>Nvidia secara jangka panjang</t>
   </si>
   <si>
-    <t>Apakah Intel i7 selalu lebih cepat daripada i5?</t>
-  </si>
-  <si>
     <t>Tergantung umur laptop dan generasinya. Untuk Generasi sekarang Intel i7 kemungkinan besar bisa lebih cepat.</t>
   </si>
   <si>
@@ -714,15 +552,9 @@
     <t>Tidak masalah</t>
   </si>
   <si>
-    <t>Bagaimana Anda meningkatkan RAM di laptop Anda?</t>
-  </si>
-  <si>
     <t>Tidak semua laptop dapat meningkatkan RAM</t>
   </si>
   <si>
-    <t>Bagaimana cara meningkatkan RAM di laptop Anda?</t>
-  </si>
-  <si>
     <t>Solusinya adalah jika terdapat slot tambahan di dalam laptop dapat ke toko untuk menambahkan slot RAM sesuai kebutuhan</t>
   </si>
   <si>
@@ -750,42 +582,21 @@
     <t>Laptop tidak berjalan optimal tanpa RAM karena terdapat banyak fungsi yang bekerja dengan RAM</t>
   </si>
   <si>
-    <t>Berapa banyak RAM yang benar-benar saya butuhkan untuk bermain game?</t>
-  </si>
-  <si>
     <t>Rata-Rata minimal 8 GB RAM , Rekomendasi untuk masa depan 16 GB RAM</t>
   </si>
   <si>
-    <t>Berapa banyak RAM yang benar-benar dibutuhkan untuk bermain game?</t>
-  </si>
-  <si>
-    <t>Apakah RAM 64 GB benar-benar layak?</t>
-  </si>
-  <si>
     <t>Tidak. 64 GB terlalu overkill harganya kecuali untuk pekerjaan berat.</t>
   </si>
   <si>
-    <t>Apakah RAM 32 GB benar-benar layak?</t>
-  </si>
-  <si>
-    <t>Apakah RAM 16 GB benar-benar layak?</t>
-  </si>
-  <si>
     <t>Iya. RAM 16 GB sangat dibutuhkan dan bagus untuk jangka panjang</t>
   </si>
   <si>
-    <t>Apakah RAM 8 GB benar-benar layak?</t>
-  </si>
-  <si>
     <t>Iya. RAM 8 GB sudah cukup baik untuk jangka panjang</t>
   </si>
   <si>
     <t>Tidak. 32 GB lumayan overkill harganya kecuali untuk pekerjaan berat.</t>
   </si>
   <si>
-    <t>Apakah RAM 4 GB benar-benar layak?</t>
-  </si>
-  <si>
     <t>Boleh saja kalau budget tidak mendukung. Tapi RAM 8 GB atau 16 GB lebih baik untuk kedepannya</t>
   </si>
   <si>
@@ -801,9 +612,6 @@
     <t>4 GB RAM hanya bagus digunakan untuk kegiatan sederhana dan aplikasi yang ringan</t>
   </si>
   <si>
-    <t>RAM untuk Machine Learning tergantung aplikasi yang digunakan. Rata-rata 8 GB RAM.</t>
-  </si>
-  <si>
     <t>Aplikasi Machine Learning apa yang membutuhkan RAM kecil ?</t>
   </si>
   <si>
@@ -813,30 +621,18 @@
     <t>Aplikasi Machine Learning apa yang membutuhkan RAM besar ?</t>
   </si>
   <si>
-    <t>Coba Anaconda untuk aplikasi Machine Learning dengan RAM besar. Minimal 16 GB RAM.</t>
-  </si>
-  <si>
     <t>Iya. RAM mempengaruhi</t>
   </si>
   <si>
     <t>Apakah ukuran RAM mempengaruhi kecepatan laptop ?</t>
   </si>
   <si>
-    <t>Mana yang lebih penting RAM atau SSD?</t>
-  </si>
-  <si>
     <t>RAM untuk kegiatan multitasking. SSD untuk penyimpanan data dengan cepat.</t>
   </si>
   <si>
     <t>Tergantung kebutuhan speksifikasi. Keduanya sama-sama penting</t>
   </si>
   <si>
-    <t>Perbedaan RAM dengan SSD?</t>
-  </si>
-  <si>
-    <t>Berapa banyak RAM yang saya butuhkan?</t>
-  </si>
-  <si>
     <t>Tergantung Kebutuhan RAM yang diinginkan. Rata-rata antara 4 dan 8 GB RAM</t>
   </si>
   <si>
@@ -870,42 +666,18 @@
     <t>Apakah ada rekomendasi laptop ASUS ?</t>
   </si>
   <si>
-    <t>Ketik \ASUS untuk mendapatkan gambaran tentang laptop bermerek ASUS</t>
-  </si>
-  <si>
     <t>Apakah ada rekomendasi laptop MSI ?</t>
   </si>
   <si>
-    <t>Ketik \MSI untuk mendapatkan gambaran tentang laptop bermerek MSI</t>
-  </si>
-  <si>
     <t>Apakah ada rekomendasi laptop Acer ?</t>
   </si>
   <si>
-    <t>Ketik \Acer untuk mendapatkan gambaran tentang laptop bermerek Acer</t>
-  </si>
-  <si>
     <t>Apakah ada rekomendasi laptop Lenovo ?</t>
   </si>
   <si>
-    <t>Ketik \Lenovo untuk mendapatkan gambaran tentang laptop bermerek Lenovo</t>
-  </si>
-  <si>
     <t>Apakah ada rekomendasi laptop HP ?</t>
   </si>
   <si>
-    <t>Ketik \HP untuk mendapatkan gambaran tentang laptop bermerek HP</t>
-  </si>
-  <si>
-    <t>ASUS_TUF_Gaming_F15_2021</t>
-  </si>
-  <si>
-    <t>ASUS_ROG_Zephyrus_G14</t>
-  </si>
-  <si>
-    <t>Asus_Notebook_P1411CMA-BV349T</t>
-  </si>
-  <si>
     <t>Asus Notebook BR1100FKA-BP0410T</t>
   </si>
   <si>
@@ -1209,27 +981,12 @@
     <t>Apakah VRAM 8GB cukup untuk bermain game 1080p ?</t>
   </si>
   <si>
-    <t>Iya. 8 GB untuk resolusi UHD yang medium</t>
-  </si>
-  <si>
     <t>Apakah VRAM 12GB cukup untuk bermain game 1080p ?</t>
   </si>
   <si>
     <t>Apakah VRAM 16GB cukup untuk bermain game 1080p ?</t>
   </si>
   <si>
-    <t>Iya. 4 GB untuk resolusi 1080p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iya. 6 GB untuk resolusi 1440p </t>
-  </si>
-  <si>
-    <t>Iya. 12 GB untuk resolusi UHD yang tinggi</t>
-  </si>
-  <si>
-    <t>Iya. 16 GB untuk resolusi UHD yang tinggi</t>
-  </si>
-  <si>
     <t>SSD vs HDD, mana yang lebih baik?</t>
   </si>
   <si>
@@ -1239,9 +996,6 @@
     <t>Apakah SSD layak untuk laptop yang digunakan untuk pemrograman?</t>
   </si>
   <si>
-    <t>Iya. SSD layak dapat digunakan untuk programming.</t>
-  </si>
-  <si>
     <t>Asisten Virtual ini ambil dari mana ya ?</t>
   </si>
   <si>
@@ -1311,9 +1065,6 @@
     <t>Mana yang lebih baik menurut Anda, HDD atau SSD?</t>
   </si>
   <si>
-    <t>Tentu. Ketikkan #Nama laptop sesuai website yang dibuat oleh tim kami</t>
-  </si>
-  <si>
     <t>Apakah ada laptop untuk bisa Webcam ?</t>
   </si>
   <si>
@@ -1728,180 +1479,6 @@
     <t>Maaf bot akan mencari informasi baru</t>
   </si>
   <si>
-    <t>https://www.tokopedia.com/rekomendasi/2756312948?ref=googleshopping&amp;c=17028976041&amp;m=468324008&amp;p=2756312948&amp;gclid=CjwKCAjw7vuUBhBUEiwAEdu2pNBrLCB0ErwxxikD-rCWKafi39NgcFIt8l334bUjdkWpX71UB9GqHhoChygQAvD_BwE&amp;gclsrc=aw.ds</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-rog-zephyrus-g14-ga401qh-r765b6t-o-eclipse-gray-sku3337451744</t>
-  </si>
-  <si>
-    <t>https://shopee.co.id/ASUS-ROG-ZEPHYRUS-GA401QH-R765B6W-O-Ryzen-7-5800HS-8GB-512GB-1650-W10-i.710483729.17540248795?gclid=CjwKCAjw7vuUBhBUEiwAEdu2pObK8Xi8MctPIUuUcM4oXyJvLTfGmuDCLKgt5OOznCxB4vvPOUE2ABoCUf4QAvD_BwE</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-notebook-a409ma-fhd422-sku0021784261</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-notebook-a416mao-hd421-sku0021784067</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-notebook-br1100cka-gj0410t-sku0022951559</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-notebook-br1100fka-bp0410t-sku0022951753</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-notebook-p1411cma-bv349t-sku0022953596</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-notebook-x441ma-ga031t-sku0022898500</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-rog-strix-g15-g513ih-r765b6t-o-metal-black-sku3337662525</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/asus-rog-zephyrus-m16-gu603hm-i736g6t-o-core-i7-11800h16gb1tb-ssdvga-6gb16win-10-homeohs-2019off-black-sku0021913562</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/laptop-asus-notebook-a413ep-vips751-sku0017300242</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-gs66-stealth-10ue-9s7-16v312-298-black-sku3336741995</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-gs66-stealth-10ug-9s7-16v312-253-black-sku3336740928</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-gs66-stealth-11ue-9s7-16v412-619-core-black-sku3337875052</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-notebook-gf63-10scsr-sku0013595133</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-notebook-gf63-9scsr-sku0013594842</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-notebook-gf63-9scxr-sku0013980708</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-stealth-15m-a11uek-9s7-156311-208-black-sku3337026011</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-stealth-15m-a11uek-9s7-156312-210-white-sku3337751765</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-gs75-stealth-10sfs-9s7-17g311-407-sku3331839809</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-gs75-stealth-9sg-9s7-17g111-1058-black-sku3327415154</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/msi-notebook-gf65-10sdr-sku0013595424</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/laptop-acer-sku0025143565</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/acer-aspire-3-slim-a315-35-c0uj-celeron-n5100-4gb-256gb-ssd-win-11-home-pure-silver-sku3338173521</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/acer-aspire-a314-22-a667-amd-3020e-4gb-256gb-ssd-black-sku3337982625</t>
-  </si>
-  <si>
-    <t>https://store.acer.com/en-id/nitro-5-an515-56-nh-qbzsn-001?gclid=CjwKCAjw7vuUBhBUEiwAEdu2pEnCOcOePWfFyg7pdHSsJsMSzNqaTTAgUJpQ8x0238uji15CIcj-iRoCArEQAvD_BwE</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/acer-predator-triton-500-pt515-51-713v-nhq50sn002-sku3324066520</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/acer-predator-triton-500-pt515-51-nhq4wsn001-sku3323667365</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/rekomendasi/3157723606?ref=googleshopping&amp;c=17028976041&amp;m=363450570&amp;p=3157723606&amp;gclid=CjwKCAjw7vuUBhBUEiwAEdu2pEIvbJKhBtioex_CPR0Au5kYmn6_FX-tW-gOnXYSOFpPsHZFl6_C8hoCG8oQAvD_BwE&amp;gclsrc=aw.ds</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-ideapad-3-14iml05-sku0025838279</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-legion-5-15ach6-82jw00dyid-phantom-blue-sku3338182154</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-legion-5-15arh05h-82b100a6id-phantom-black-sku3336709888</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-legion-5p-15imh05h-82aw006kid-iron-grey-sku3336660224</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-legion-7-16achg6-82n6009uid-strom-grey-sku3337473666</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-legion-s7-15ach6-82k8002xid-shadow-black-sku3338090004</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-notebook-ip3-49id-sku0021792991</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/lenovo-notebook-v14ada-9did-sku0021792215</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf2032tx-sku0022963587</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf2033tx-sku0023033233</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf2075tu-sku0023040993</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf2076tu-sku0022964266</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf3018tx-sku0022962714</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf3034tx-sku0022964460</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf3039tu-sku0022956700</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf3040tu-sku0023036434</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf3076tu-sku0023035755</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-dq2052tu-sku0023040605</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-dq2053tu-sku0022963975</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-dq2055tu-sku0022958155</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-fq0014au-sku0022957670</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-fq0021au-sku0023041963</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-15s-fq2503tu-sku0022964169</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-notebook-14s-cf3040tu-sku0013995064</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/notebook-hp-245-1u3w0pa-sku0022965430</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/omen-laptop-15-ek0044tx-sku0022961162</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/omen-laptop-15-en0013ax-sku0022965818</t>
-  </si>
-  <si>
-    <t>https://www.bhinneka.com/hp-laptop-14s-cf2034tx-sku0023038180</t>
-  </si>
-  <si>
     <t>Ketik ASUS untuk mendapatkan gambaran tentang laptop bermerek ASUS</t>
   </si>
   <si>
@@ -1917,23 +1494,251 @@
     <t>Ketik HP untuk mendapatkan gambaran tentang laptop bermerek HP</t>
   </si>
   <si>
-    <t>https://www.hp.com/id-id/shop/laptops-tablets/personal-laptops/omen-laptops.html</t>
-  </si>
-  <si>
-    <t>https://www.hp.com/id-id/shop/laptops-tablets/personal-laptops/victus-laptops.html</t>
-  </si>
-  <si>
-    <t>https://www.tokopedia.com/rekomendasi/3369902548?ref=googleshopping&amp;c=17028976041&amp;m=122706502&amp;p=3369902548&amp;gclid=CjwKCAjw7vuUBhBUEiwAEdu2pFb4w2kPSnSBKmRnX0ykyxyV7N4gLZlmYBvoty33PfSSpzCGKKUt4RoCrH8QAvD_BwE&amp;gclsrc=aw.ds</t>
-  </si>
-  <si>
-    <t>https://www.lenovo.com/id/in/laptops/legion/legion-5-series/Legion-5-Pro-16ACH6H/p/WMD00000468?orgRef=https%253A%252F%252Fwww.google.com%252F</t>
+    <t>Laptop gaming ROG yaitu ASUS_ROG_Zephyrus_G14</t>
+  </si>
+  <si>
+    <t>Laptop terbaik MSI adalah MSI GF63 Thin</t>
+  </si>
+  <si>
+    <t>ASUS TUF adalah merek kelas menengah yang berorientasi pada desain dan keandalan yang kokoh sedangkan ASUS ROG adalah merek game premium dengan fokus pada overclocking ekstrim dan banyak pencahayaan RGB seperti hitam.</t>
+  </si>
+  <si>
+    <t>RAM untuk Machine Learning tergantung aplikasi yang digunakan dengan rata-rata 8 GB RAM.</t>
+  </si>
+  <si>
+    <t>Coba Anaconda untuk aplikasi Machine Learning dengan RAM besar dengan minimal 16 GB RAM.</t>
+  </si>
+  <si>
+    <t>Untuk pekerjaan laptop Lenovo, Untuk Gaming Asus.</t>
+  </si>
+  <si>
+    <t>Tentu. Ketikkan Nama laptop sesuai website yang dibuat oleh tim kami</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming F15 2021</t>
+  </si>
+  <si>
+    <t>ASUS ROG Zephyrus G14</t>
+  </si>
+  <si>
+    <t>Asus Notebook P1411CMA-BV349T</t>
+  </si>
+  <si>
+    <t>Tentu 4 GB untuk resolusi 1080p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tentu 6 GB untuk resolusi 1440p </t>
+  </si>
+  <si>
+    <t>Tentu 8 GB untuk resolusi UHD yang medium</t>
+  </si>
+  <si>
+    <t>Tentu 12 GB untuk resolusi UHD yang tinggi</t>
+  </si>
+  <si>
+    <t>Tentu 16 GB untuk resolusi UHD yang tinggi</t>
+  </si>
+  <si>
+    <t>Iya SSD layak dapat digunakan untuk programming.</t>
+  </si>
+  <si>
+    <t>Perbedaan RAM dengan SSD ?</t>
+  </si>
+  <si>
+    <t>Mana yang lebih penting RAM atau SSD ?</t>
+  </si>
+  <si>
+    <t>Berapa banyak RAM yang saya butuhkan ?</t>
+  </si>
+  <si>
+    <t>Apakah RAM 4 GB benar-benar layak ?</t>
+  </si>
+  <si>
+    <t>Apakah RAM 64 GB benar-benar layak ?</t>
+  </si>
+  <si>
+    <t>Apakah RAM 32 GB benar-benar layak ?</t>
+  </si>
+  <si>
+    <t>Apakah RAM 16 GB benar-benar layak ?</t>
+  </si>
+  <si>
+    <t>Apakah RAM 8 GB benar-benar layak ?</t>
+  </si>
+  <si>
+    <t>Berapa banyak RAM yang benar-benar dibutuhkan untuk bermain game ?</t>
+  </si>
+  <si>
+    <t>Berapa banyak RAM yang benar-benar saya butuhkan untuk bermain game ?</t>
+  </si>
+  <si>
+    <t>Bagaimana cara meningkatkan RAM di laptop Anda ?</t>
+  </si>
+  <si>
+    <t>Bagaimana Anda meningkatkan RAM di laptop Anda ?</t>
+  </si>
+  <si>
+    <t>Apakah Intel i7 selalu lebih cepat daripada i5 ?</t>
+  </si>
+  <si>
+    <t>Adakah produsen GPU kartu grafis selain AMD, NVidia dan Intel ?</t>
+  </si>
+  <si>
+    <t>Mana yang lebih cocok untuk mahasiswa antara Core i5 dan AMD Ryzen 5 ?</t>
+  </si>
+  <si>
+    <t>Apakah Asus ROG Strix masih layak ?</t>
+  </si>
+  <si>
+    <t>Haruskah saya memilih Asus ROG atau Lenovo Legion ?</t>
+  </si>
+  <si>
+    <t>Apakah Asus merek laptop yang bagus ?</t>
+  </si>
+  <si>
+    <t>Laptop mana yang terbaik, Lenovo, HP, Acer, atau Dell ?</t>
+  </si>
+  <si>
+    <t>Laptop mana yang lebih baik, Lenovo, Dell, HP, Asus atau Acer ?</t>
+  </si>
+  <si>
+    <t>Mengapa laptop Acer lebih murah dari yang lain ?</t>
+  </si>
+  <si>
+    <t>Laptop mana yang lebih baik, HP, Dell atau Acer ?</t>
+  </si>
+  <si>
+    <t>Mana yang lebih baik laptop, Acer atau HP ?</t>
+  </si>
+  <si>
+    <t>Apa perbedaan antara laptop HP dan Acer ?</t>
+  </si>
+  <si>
+    <t>Laptop apa yang terbaik untuk freelancer ?</t>
+  </si>
+  <si>
+    <t>Ukuran layar laptop yang diperlukan berapa ya ?</t>
+  </si>
+  <si>
+    <t>Apa pendapat Anda tentang laptop Lenovo ?</t>
+  </si>
+  <si>
+    <t>Apakah laptop Acer bagus untuk bermain game ?</t>
+  </si>
+  <si>
+    <t>Manakah laptop terbaik antara Lenovo, Acer dan HP ?</t>
+  </si>
+  <si>
+    <t>Manakah laptop terbaik antara Acer dengan HP ?</t>
+  </si>
+  <si>
+    <t>Berapa lama laptop Acer biasanya bertahan ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apakah laptop Acer Nitro 5 layak dibeli ? </t>
+  </si>
+  <si>
+    <t>Iya silahkan.</t>
+  </si>
+  <si>
+    <t>Apakah laptop Acer perusahaan yang baik untuk digunakan ?</t>
+  </si>
+  <si>
+    <t>Bagaimana cara mengetahui speksifikasi laptop yang bagus ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebih baik lenovo atau acer ? </t>
+  </si>
+  <si>
+    <t>Apakah komputer Asus lebih baik dari Acer ?</t>
+  </si>
+  <si>
+    <t>Apakah Laptop Acer tahan lama ?</t>
+  </si>
+  <si>
+    <t>Mana yang lebih baik, HP Omen atau ASUS ROG Strix ?</t>
+  </si>
+  <si>
+    <t>Merek mana yang lebih baik antara HP, Asus, dan Acer secara keseluruhan ?</t>
+  </si>
+  <si>
+    <t>Apakah Asus ROG Zephyrus G14 layak dibeli ?</t>
+  </si>
+  <si>
+    <t>Apakah laptop gaming ASUS Republic of Gamers (ROG) berkualitas baik ?</t>
+  </si>
+  <si>
+    <t>Apa perbedaan antara Asus ROG dan Asus TUF ?</t>
+  </si>
+  <si>
+    <t>Apakah Asus ROG laptop gaming yang bagus ?</t>
+  </si>
+  <si>
+    <t>Manakah laptop Asus ROG yang terbaik ?</t>
+  </si>
+  <si>
+    <t>Apakah MSI membuat GPU gaming yang bagus ?</t>
+  </si>
+  <si>
+    <t>Manakah laptop gaming MSI terbaik ?</t>
+  </si>
+  <si>
+    <t>Apa keandalan laptop MSI ?</t>
+  </si>
+  <si>
+    <t>Untuk gaming, mana yang terbaik, laptop Acer atau laptop MSI ?</t>
+  </si>
+  <si>
+    <t>Manakah laptop terbaik untuk gaming di antara Asus, Alienware, Acer, Omen, dan MSI ?</t>
+  </si>
+  <si>
+    <t>Saya akan membeli laptop gaming MSI tetapi saya dengar laptop itu mudah rusak. Orang-orang juga mengatakan bahwa mereka menggunakan suku cadang yang murah. Apakah itu benar? Jika bukan MSI lalu perusahaan mana yang menjadi pengganti terbaik ?</t>
+  </si>
+  <si>
+    <t>Mana yang lebih baik untuk gaming laptop Asus ROG atau Msi ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apa yang harus saya ketahui sebelum membeli laptop ? </t>
+  </si>
+  <si>
+    <t>Apa laptop terbaik untuk mahasiswa Ilmu Komputer dan Teknik ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apa laptop terbaik untuk desainer grafis ? </t>
+  </si>
+  <si>
+    <t>Laptop mana yang terbaik: HP atau Lenovo ?</t>
+  </si>
+  <si>
+    <t>Mana yang lebih baik untuk bermain game, laptop atau komputer ?</t>
+  </si>
+  <si>
+    <t>Apakah MSI lebih baik dari Acer ?</t>
+  </si>
+  <si>
+    <t>Apakah predator Acer atau laptop MSI yang terbaik untuk bermain game ?</t>
+  </si>
+  <si>
+    <t>Apakah MSI merek laptop yang bagus ?</t>
+  </si>
+  <si>
+    <t>Merek laptop apa yang terbaik ?</t>
+  </si>
+  <si>
+    <t>Apa laptop terbaik untuk bermain game ?</t>
+  </si>
+  <si>
+    <t>Apa laptop terbaik ?</t>
+  </si>
+  <si>
+    <t>Secara umum, mana yang lebih baik, desktop atau laptop ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1951,20 +1756,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF121212"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1987,20 +1778,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2281,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2308,10 +2096,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2366,7 +2154,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2407,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -2429,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>387</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
@@ -2443,7 +2231,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -2473,10 +2261,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>459</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -2487,7 +2275,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2498,7 +2286,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -2506,10 +2294,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2520,7 +2308,7 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -2531,7 +2319,7 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -2539,10 +2327,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -2553,7 +2341,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -2561,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -2572,10 +2360,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -2583,10 +2371,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2594,10 +2382,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>437</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -2605,10 +2393,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2616,10 +2404,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>566</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2627,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>567</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2638,10 +2426,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -2649,10 +2437,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>439</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -2660,7 +2448,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>568</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -2671,10 +2459,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -2682,10 +2470,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -2693,10 +2481,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>561</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2704,10 +2492,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>559</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -2715,10 +2503,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>558</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -2726,10 +2514,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2737,10 +2525,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>560</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -2748,10 +2536,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>556</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -2759,10 +2547,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2770,10 +2558,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>555</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -2781,10 +2569,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>554</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -2792,10 +2580,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>553</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -2803,10 +2591,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2814,10 +2602,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>563</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -2825,10 +2613,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2836,10 +2624,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>553</v>
+      </c>
+      <c r="C50" t="s">
         <v>54</v>
-      </c>
-      <c r="C50" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -2847,10 +2635,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>552</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -2858,10 +2646,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>551</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -2869,10 +2657,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>550</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2880,10 +2668,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -2891,10 +2679,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>547</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -2902,10 +2690,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>548</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -2913,10 +2701,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>549</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -2924,10 +2712,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2935,10 +2723,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>546</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2946,10 +2734,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>545</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2957,10 +2745,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>522</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2968,10 +2756,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>543</v>
       </c>
       <c r="C62" t="s">
-        <v>464</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2979,10 +2767,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2990,10 +2778,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -3001,10 +2789,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>542</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -3012,10 +2800,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>544</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -3023,10 +2811,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -3034,10 +2822,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>541</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -3045,10 +2833,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>540</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -3056,10 +2844,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>538</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -3067,10 +2855,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>539</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -3078,10 +2866,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>536</v>
       </c>
       <c r="C72" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -3089,10 +2877,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>535</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -3100,10 +2888,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>534</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -3111,10 +2899,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -3122,10 +2910,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>533</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -3133,10 +2921,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>532</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -3144,10 +2932,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -3155,10 +2943,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -3166,10 +2954,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -3177,10 +2965,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -3188,10 +2976,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>531</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -3199,10 +2987,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>530</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -3210,10 +2998,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -3221,10 +3009,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -3232,10 +3020,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -3243,10 +3031,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -3254,10 +3042,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -3265,10 +3053,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -3276,10 +3064,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>465</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -3287,10 +3075,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -3298,10 +3086,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="C92" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -3309,10 +3097,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -3320,10 +3108,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -3331,10 +3119,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -3342,10 +3130,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>528</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -3353,10 +3141,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>527</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -3364,10 +3152,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>526</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -3375,10 +3163,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>525</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -3386,10 +3174,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>146</v>
+        <v>524</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -3397,10 +3185,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>523</v>
       </c>
       <c r="C101" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -3408,10 +3196,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>522</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -3419,10 +3207,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>135</v>
+        <v>521</v>
       </c>
       <c r="C103" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -3430,10 +3218,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -3441,10 +3229,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -3452,10 +3240,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>520</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -3463,10 +3251,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -3474,10 +3262,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -3485,10 +3273,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -3496,10 +3284,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -3507,10 +3295,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -3518,10 +3306,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>186</v>
+        <v>518</v>
       </c>
       <c r="C112" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -3529,10 +3317,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -3540,10 +3328,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>517</v>
       </c>
       <c r="C114" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -3551,10 +3339,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C115" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -3562,10 +3350,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -3573,10 +3361,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -3584,10 +3372,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -3595,10 +3383,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -3606,10 +3394,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -3617,10 +3405,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -3628,10 +3416,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -3639,10 +3427,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -3650,10 +3438,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C124" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -3661,10 +3449,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -3672,10 +3460,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -3683,10 +3471,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -3694,10 +3482,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -3705,10 +3493,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -3716,10 +3504,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -3727,10 +3515,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -3738,10 +3526,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -3749,10 +3537,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>516</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -3760,10 +3548,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -3771,10 +3559,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C135" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -3782,10 +3570,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -3793,10 +3581,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -3804,10 +3592,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -3815,10 +3603,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>514</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -3826,10 +3614,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>243</v>
+        <v>513</v>
       </c>
       <c r="C140" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -3837,10 +3625,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>509</v>
       </c>
       <c r="C141" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -3848,10 +3636,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>246</v>
+        <v>510</v>
       </c>
       <c r="C142" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -3859,10 +3647,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>511</v>
       </c>
       <c r="C143" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -3870,10 +3658,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>249</v>
+        <v>512</v>
       </c>
       <c r="C144" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -3881,10 +3669,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>252</v>
+        <v>508</v>
       </c>
       <c r="C145" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -3892,10 +3680,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -3903,10 +3691,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="C147" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -3914,10 +3702,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="C148" t="s">
-        <v>258</v>
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -3925,10 +3713,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="C149" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -3936,10 +3724,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="C150" t="s">
-        <v>262</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -3947,10 +3735,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
       <c r="C151" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3958,10 +3746,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>505</v>
       </c>
       <c r="C152" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -3969,10 +3757,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
+        <v>506</v>
       </c>
       <c r="C153" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -3980,10 +3768,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>269</v>
+        <v>507</v>
       </c>
       <c r="C154" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -3991,10 +3779,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="C155" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -4002,10 +3790,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>276</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4013,10 +3801,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -4024,10 +3812,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="C158" t="s">
-        <v>278</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -4035,10 +3823,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C159" t="s">
-        <v>290</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -4046,10 +3834,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C160" t="s">
-        <v>291</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4057,10 +3845,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>292</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -4068,10 +3856,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C162" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -4079,10 +3867,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C163" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -4090,10 +3878,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C164" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -4101,10 +3889,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C165" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -4112,10 +3900,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C166" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -4123,10 +3911,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C167" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -4134,10 +3922,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C168" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -4145,10 +3933,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C169" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -4156,10 +3944,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C170" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -4167,10 +3955,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="C171" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -4178,10 +3966,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="C172" t="s">
-        <v>281</v>
+        <v>484</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -4189,10 +3977,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="C173" t="s">
-        <v>283</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -4200,10 +3988,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>285</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -4211,10 +3999,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="C175" t="s">
-        <v>287</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -4222,10 +4010,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="C176" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -4233,10 +4021,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C177" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -4244,10 +4032,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C178" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -4255,10 +4043,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C179" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -4266,10 +4054,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C180" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -4277,10 +4065,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C181" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -4288,10 +4076,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C182" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -4299,10 +4087,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C183" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -4310,10 +4098,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C184" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -4321,10 +4109,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C185" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -4332,10 +4120,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C186" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -4343,10 +4131,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C187" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -4354,10 +4142,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C188" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -4365,10 +4153,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C189" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -4376,10 +4164,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C190" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -4387,10 +4175,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>317</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -4398,10 +4186,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>318</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -4409,10 +4197,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C193" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -4420,10 +4208,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C194" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -4431,10 +4219,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="C195" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -4442,10 +4230,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C196" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -4453,10 +4241,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C197" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -4464,10 +4252,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C198" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -4475,10 +4263,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C199" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -4486,10 +4274,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C200" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -4497,10 +4285,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C201" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -4508,10 +4296,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C202" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -4519,10 +4307,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C203" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -4530,10 +4318,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C204" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -4541,10 +4329,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C205" t="s">
-        <v>332</v>
+        <v>256</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -4552,10 +4340,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="C206" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -4563,10 +4351,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C207" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -4574,10 +4362,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C208" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -4585,10 +4373,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C209" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -4596,10 +4384,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C210" t="s">
-        <v>338</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -4607,10 +4395,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C211" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -4618,10 +4406,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C212" t="s">
-        <v>340</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -4629,10 +4417,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C213" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -4640,10 +4428,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C214" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -4651,10 +4439,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C215" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -4662,10 +4450,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C216" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -4673,10 +4461,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C217" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -4684,10 +4472,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C218" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -4695,10 +4483,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C219" t="s">
-        <v>346</v>
+        <v>270</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -4706,10 +4494,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C220" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -4717,10 +4505,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C221" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -4728,10 +4516,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C222" t="s">
-        <v>348</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -4739,10 +4527,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C223" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -4750,10 +4538,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C224" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -4761,10 +4549,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C225" t="s">
-        <v>350</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -4772,10 +4560,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C226" t="s">
-        <v>351</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -4783,10 +4571,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C227" t="s">
-        <v>352</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -4794,10 +4582,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C228" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -4805,10 +4593,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -4816,10 +4604,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C230" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -4827,10 +4615,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C231" t="s">
-        <v>356</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -4838,10 +4626,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="C232" t="s">
-        <v>567</v>
+        <v>496</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -4849,10 +4637,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>358</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>569</v>
+        <v>282</v>
+      </c>
+      <c r="C233" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -4860,10 +4648,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C234" t="s">
-        <v>574</v>
+        <v>283</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -4871,10 +4659,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>360</v>
+        <v>284</v>
       </c>
       <c r="C235" t="s">
-        <v>573</v>
+        <v>217</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -4882,10 +4670,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>361</v>
+        <v>285</v>
       </c>
       <c r="C236" t="s">
-        <v>570</v>
+        <v>218</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -4893,10 +4681,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>362</v>
+        <v>286</v>
       </c>
       <c r="C237" t="s">
-        <v>575</v>
+        <v>219</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -4904,10 +4692,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>360</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>573</v>
+        <v>284</v>
+      </c>
+      <c r="C238" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -4915,10 +4703,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="C239" t="s">
-        <v>572</v>
+        <v>220</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -4926,10 +4714,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="C240" t="s">
-        <v>571</v>
+        <v>221</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -4937,10 +4725,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="C241" t="s">
-        <v>576</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4948,10 +4736,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="C242" t="s">
-        <v>568</v>
+        <v>223</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4959,10 +4747,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="C243" t="s">
-        <v>577</v>
+        <v>224</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4970,10 +4758,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>316</v>
+        <v>240</v>
       </c>
       <c r="C244" t="s">
-        <v>578</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4981,10 +4769,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="C245" t="s">
-        <v>589</v>
+        <v>225</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4992,10 +4780,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="C246" t="s">
-        <v>584</v>
+        <v>226</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -5003,10 +4791,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="C247" t="s">
-        <v>583</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -5014,10 +4802,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="C248" t="s">
-        <v>582</v>
+        <v>228</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -5025,10 +4813,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="C249" t="s">
-        <v>583</v>
+        <v>227</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -5036,10 +4824,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="C250" t="s">
-        <v>585</v>
+        <v>229</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -5047,10 +4835,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="C251" t="s">
-        <v>586</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -5058,10 +4846,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="C252" t="s">
-        <v>587</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -5069,10 +4857,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="C253" t="s">
-        <v>588</v>
+        <v>232</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -5080,10 +4868,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="C254" t="s">
-        <v>580</v>
+        <v>233</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -5091,10 +4879,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="C255" t="s">
-        <v>579</v>
+        <v>234</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -5102,10 +4890,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="C256" t="s">
-        <v>580</v>
+        <v>235</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -5113,10 +4901,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="C257" t="s">
-        <v>581</v>
+        <v>236</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -5124,10 +4912,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>315</v>
+        <v>239</v>
       </c>
       <c r="C258" t="s">
-        <v>590</v>
+        <v>239</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -5135,10 +4923,10 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C259" t="s">
-        <v>595</v>
+        <v>241</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -5146,10 +4934,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C260" t="s">
-        <v>594</v>
+        <v>242</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -5157,10 +4945,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="C261" t="s">
-        <v>592</v>
+        <v>243</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -5168,10 +4956,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="C262" t="s">
-        <v>591</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -5179,10 +4967,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>321</v>
+        <v>245</v>
       </c>
       <c r="C263" t="s">
-        <v>593</v>
+        <v>245</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -5190,10 +4978,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>322</v>
+        <v>246</v>
       </c>
       <c r="C264" t="s">
-        <v>596</v>
+        <v>246</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -5201,10 +4989,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="C265" t="s">
-        <v>604</v>
+        <v>248</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -5212,10 +5000,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>325</v>
+        <v>249</v>
       </c>
       <c r="C266" t="s">
-        <v>603</v>
+        <v>249</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -5223,10 +5011,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>326</v>
+        <v>250</v>
       </c>
       <c r="C267" t="s">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -5234,10 +5022,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="C268" t="s">
-        <v>602</v>
+        <v>251</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -5245,10 +5033,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="C269" t="s">
-        <v>599</v>
+        <v>252</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -5256,10 +5044,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="C270" t="s">
-        <v>601</v>
+        <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -5267,10 +5055,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="C271" t="s">
-        <v>598</v>
+        <v>254</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -5278,10 +5066,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="C272" t="s">
-        <v>597</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -5289,10 +5077,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>388</v>
+        <v>312</v>
       </c>
       <c r="C273" t="s">
-        <v>632</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -5300,10 +5088,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>387</v>
+        <v>311</v>
       </c>
       <c r="C274" t="s">
-        <v>633</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -5311,10 +5099,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>386</v>
+        <v>310</v>
       </c>
       <c r="C275" t="s">
-        <v>616</v>
+        <v>259</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -5322,10 +5110,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="C276" t="s">
-        <v>615</v>
+        <v>260</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -5333,10 +5121,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="C277" t="s">
-        <v>614</v>
+        <v>261</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -5344,10 +5132,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="C278" t="s">
-        <v>619</v>
+        <v>262</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -5355,10 +5143,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="C279" t="s">
-        <v>612</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -5366,10 +5154,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>382</v>
+        <v>306</v>
       </c>
       <c r="C280" t="s">
-        <v>605</v>
+        <v>264</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -5377,10 +5165,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="C281" t="s">
-        <v>614</v>
+        <v>261</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -5388,10 +5176,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>372</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>613</v>
+        <v>296</v>
+      </c>
+      <c r="C282" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -5399,10 +5187,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>380</v>
+        <v>304</v>
       </c>
       <c r="C283" t="s">
-        <v>607</v>
+        <v>266</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -5410,10 +5198,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>379</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>610</v>
+        <v>303</v>
+      </c>
+      <c r="C284" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -5421,10 +5209,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="C285" t="s">
-        <v>617</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -5432,10 +5220,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>377</v>
+        <v>301</v>
       </c>
       <c r="C286" t="s">
-        <v>606</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -5443,10 +5231,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="C287" t="s">
-        <v>611</v>
+        <v>270</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -5454,10 +5242,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="C288" t="s">
-        <v>621</v>
+        <v>271</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -5465,10 +5253,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="C289" t="s">
-        <v>623</v>
+        <v>272</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -5476,10 +5264,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
       <c r="C290" t="s">
-        <v>623</v>
+        <v>272</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -5487,10 +5275,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="C291" t="s">
-        <v>618</v>
+        <v>273</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -5498,10 +5286,10 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="C292" t="s">
-        <v>613</v>
+        <v>265</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -5509,10 +5297,10 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>624</v>
+        <v>274</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -5520,10 +5308,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>620</v>
+        <v>275</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -5531,10 +5319,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="C295" t="s">
-        <v>608</v>
+        <v>276</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -5542,10 +5330,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="C296" t="s">
-        <v>609</v>
+        <v>277</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -5553,10 +5341,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="C297" t="s">
-        <v>622</v>
+        <v>278</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -5564,10 +5352,10 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="C298" t="s">
-        <v>630</v>
+        <v>279</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
@@ -5575,10 +5363,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="C299" t="s">
-        <v>631</v>
+        <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -5586,10 +5374,10 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="C300" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -5597,10 +5385,10 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="C301" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
@@ -5608,10 +5396,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="C302" t="s">
-        <v>397</v>
+        <v>499</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
@@ -5619,10 +5407,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="C303" t="s">
-        <v>398</v>
+        <v>500</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
@@ -5630,10 +5418,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="C304" t="s">
-        <v>394</v>
+        <v>501</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -5641,10 +5429,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="C305" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
@@ -5652,10 +5440,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="C306" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -5663,10 +5451,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>401</v>
+        <v>320</v>
       </c>
       <c r="C307" t="s">
-        <v>402</v>
+        <v>321</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -5674,10 +5462,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="C308" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -5685,10 +5473,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="C309" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -5696,10 +5484,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="C310" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
@@ -5707,10 +5495,10 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="C311" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -5718,10 +5506,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="C312" t="s">
-        <v>413</v>
+        <v>331</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
@@ -5729,10 +5517,10 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="C313" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
@@ -5740,10 +5528,10 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="C314" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
@@ -5751,10 +5539,10 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="C315" t="s">
-        <v>445</v>
+        <v>362</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
@@ -5762,10 +5550,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="C316" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -5773,10 +5561,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="C317" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -5784,10 +5572,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>421</v>
+        <v>339</v>
       </c>
       <c r="C318" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
@@ -5795,10 +5583,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>423</v>
+        <v>341</v>
       </c>
       <c r="C319" t="s">
-        <v>424</v>
+        <v>342</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
@@ -5806,10 +5594,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>425</v>
+        <v>343</v>
       </c>
       <c r="C320" t="s">
-        <v>426</v>
+        <v>344</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
@@ -5817,10 +5605,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="C321" t="s">
-        <v>450</v>
+        <v>367</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
@@ -5828,10 +5616,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="C322" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
@@ -5839,10 +5627,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="C323" t="s">
-        <v>451</v>
+        <v>368</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
@@ -5850,10 +5638,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="C324" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
@@ -5861,10 +5649,10 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>433</v>
+        <v>350</v>
       </c>
       <c r="C325" t="s">
-        <v>434</v>
+        <v>351</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
@@ -5872,10 +5660,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="C326" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
@@ -5883,10 +5671,10 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
       <c r="C327" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
@@ -5894,10 +5682,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="C328" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
@@ -5905,10 +5693,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="C329" t="s">
-        <v>422</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -5916,10 +5704,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>446</v>
+        <v>363</v>
       </c>
       <c r="C330" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
@@ -5927,10 +5715,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="C331" t="s">
-        <v>447</v>
+        <v>364</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
@@ -5938,10 +5726,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>449</v>
+        <v>366</v>
       </c>
       <c r="C332" t="s">
-        <v>442</v>
+        <v>359</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
@@ -5949,10 +5737,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>452</v>
+        <v>369</v>
       </c>
       <c r="C333" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -5960,10 +5748,10 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>454</v>
+        <v>371</v>
       </c>
       <c r="C334" t="s">
-        <v>453</v>
+        <v>370</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
@@ -5971,10 +5759,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>455</v>
+        <v>372</v>
       </c>
       <c r="C335" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
@@ -5982,10 +5770,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>456</v>
+        <v>373</v>
       </c>
       <c r="C336" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -5993,10 +5781,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="C337" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -6004,10 +5792,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="C338" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -6015,10 +5803,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>471</v>
+        <v>388</v>
       </c>
       <c r="C339" t="s">
-        <v>625</v>
+        <v>484</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
@@ -6026,10 +5814,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="C340" t="s">
-        <v>626</v>
+        <v>485</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
@@ -6037,10 +5825,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>473</v>
+        <v>390</v>
       </c>
       <c r="C341" t="s">
-        <v>627</v>
+        <v>486</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
@@ -6048,10 +5836,10 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="C342" t="s">
-        <v>628</v>
+        <v>487</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
@@ -6059,10 +5847,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>475</v>
+        <v>392</v>
       </c>
       <c r="C343" t="s">
-        <v>629</v>
+        <v>488</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
@@ -6070,10 +5858,10 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>476</v>
+        <v>393</v>
       </c>
       <c r="C344" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
@@ -6081,10 +5869,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>478</v>
+        <v>395</v>
       </c>
       <c r="C345" t="s">
-        <v>477</v>
+        <v>394</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
@@ -6092,10 +5880,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>479</v>
+        <v>396</v>
       </c>
       <c r="C346" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
@@ -6103,10 +5891,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="C347" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
@@ -6114,10 +5902,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>482</v>
+        <v>399</v>
       </c>
       <c r="C348" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
@@ -6125,10 +5913,10 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>483</v>
+        <v>400</v>
       </c>
       <c r="C349" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,10 +5924,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>485</v>
+        <v>402</v>
       </c>
       <c r="C350" t="s">
-        <v>484</v>
+        <v>401</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
@@ -6147,10 +5935,10 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>486</v>
+        <v>403</v>
       </c>
       <c r="C351" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -6158,10 +5946,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>490</v>
+        <v>407</v>
       </c>
       <c r="C352" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -6169,10 +5957,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>491</v>
+        <v>408</v>
       </c>
       <c r="C353" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
@@ -6180,10 +5968,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>492</v>
+        <v>409</v>
       </c>
       <c r="C354" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -6191,10 +5979,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="C355" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
@@ -6202,10 +5990,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>487</v>
+        <v>404</v>
       </c>
       <c r="C356" t="s">
-        <v>488</v>
+        <v>405</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
@@ -6213,10 +6001,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>489</v>
+        <v>406</v>
       </c>
       <c r="C357" t="s">
-        <v>488</v>
+        <v>405</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
@@ -6224,10 +6012,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
       <c r="C358" t="s">
-        <v>508</v>
+        <v>425</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
@@ -6235,10 +6023,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="C359" t="s">
-        <v>509</v>
+        <v>426</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
@@ -6246,10 +6034,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>497</v>
+        <v>414</v>
       </c>
       <c r="C360" t="s">
-        <v>496</v>
+        <v>413</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
@@ -6257,10 +6045,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
       <c r="C361" t="s">
-        <v>505</v>
+        <v>422</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
@@ -6268,10 +6056,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>499</v>
+        <v>416</v>
       </c>
       <c r="C362" t="s">
-        <v>504</v>
+        <v>421</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
@@ -6279,10 +6067,10 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>500</v>
+        <v>417</v>
       </c>
       <c r="C363" t="s">
-        <v>506</v>
+        <v>423</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
@@ -6290,10 +6078,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>501</v>
+        <v>418</v>
       </c>
       <c r="C364" t="s">
-        <v>507</v>
+        <v>424</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -6301,10 +6089,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>502</v>
+        <v>419</v>
       </c>
       <c r="C365" t="s">
-        <v>510</v>
+        <v>427</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -6312,10 +6100,10 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="C366" t="s">
-        <v>511</v>
+        <v>428</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
@@ -6323,10 +6111,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>513</v>
+        <v>430</v>
       </c>
       <c r="C367" t="s">
-        <v>518</v>
+        <v>435</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
@@ -6334,10 +6122,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="C368" t="s">
-        <v>519</v>
+        <v>436</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -6345,10 +6133,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>514</v>
+        <v>431</v>
       </c>
       <c r="C369" t="s">
-        <v>520</v>
+        <v>437</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
@@ -6356,10 +6144,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>515</v>
+        <v>432</v>
       </c>
       <c r="C370" t="s">
-        <v>521</v>
+        <v>438</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
@@ -6367,10 +6155,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>516</v>
+        <v>433</v>
       </c>
       <c r="C371" t="s">
-        <v>522</v>
+        <v>439</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -6378,10 +6166,10 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>517</v>
+        <v>434</v>
       </c>
       <c r="C372" t="s">
-        <v>523</v>
+        <v>440</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -6389,10 +6177,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>524</v>
+        <v>441</v>
       </c>
       <c r="C373" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
@@ -6400,10 +6188,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>525</v>
+        <v>442</v>
       </c>
       <c r="C374" t="s">
-        <v>527</v>
+        <v>444</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
@@ -6411,10 +6199,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
       <c r="C375" t="s">
-        <v>530</v>
+        <v>447</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
@@ -6422,10 +6210,10 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>529</v>
+        <v>446</v>
       </c>
       <c r="C376" t="s">
-        <v>531</v>
+        <v>448</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
@@ -6433,10 +6221,10 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="C377" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
@@ -6444,10 +6232,10 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>542</v>
+        <v>459</v>
       </c>
       <c r="C378" t="s">
-        <v>534</v>
+        <v>451</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -6455,10 +6243,10 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>544</v>
+        <v>461</v>
       </c>
       <c r="C379" t="s">
-        <v>537</v>
+        <v>454</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
@@ -6466,10 +6254,10 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>545</v>
+        <v>462</v>
       </c>
       <c r="C380" t="s">
-        <v>537</v>
+        <v>454</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
@@ -6477,10 +6265,10 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>538</v>
+        <v>455</v>
       </c>
       <c r="C381" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
@@ -6488,10 +6276,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="C382" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
@@ -6499,10 +6287,10 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="C383" t="s">
-        <v>543</v>
+        <v>460</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
@@ -6510,10 +6298,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="C384" t="s">
-        <v>543</v>
+        <v>460</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
@@ -6521,10 +6309,10 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>536</v>
+        <v>453</v>
       </c>
       <c r="C385" t="s">
-        <v>546</v>
+        <v>463</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
@@ -6532,10 +6320,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="C386" t="s">
-        <v>546</v>
+        <v>463</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
@@ -6543,10 +6331,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>547</v>
+        <v>464</v>
       </c>
       <c r="C387" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
@@ -6554,10 +6342,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
       <c r="C388" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
@@ -6565,10 +6353,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>551</v>
+        <v>468</v>
       </c>
       <c r="C389" t="s">
-        <v>550</v>
+        <v>467</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
@@ -6576,10 +6364,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>552</v>
+        <v>469</v>
       </c>
       <c r="C390" t="s">
-        <v>553</v>
+        <v>470</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
@@ -6587,10 +6375,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>554</v>
+        <v>471</v>
       </c>
       <c r="C391" t="s">
-        <v>555</v>
+        <v>472</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
@@ -6598,10 +6386,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="C392" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -6609,10 +6397,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="C393" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
@@ -6620,10 +6408,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>559</v>
+        <v>476</v>
       </c>
       <c r="C394" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
@@ -6631,10 +6419,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>560</v>
+        <v>477</v>
       </c>
       <c r="C395" t="s">
-        <v>558</v>
+        <v>475</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
@@ -6642,10 +6430,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>561</v>
+        <v>478</v>
       </c>
       <c r="C396" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
@@ -6653,10 +6441,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="C397" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -6664,10 +6452,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="C398" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
@@ -6675,10 +6463,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="C399" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
@@ -6686,10 +6474,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>564</v>
+        <v>481</v>
       </c>
       <c r="C400" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
@@ -6697,23 +6485,17 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>565</v>
+        <v>482</v>
       </c>
       <c r="C401" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C336">
     <sortCondition ref="A1:A336"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="C233" r:id="rId1" xr:uid="{AB41161D-6A3D-4BA4-B90A-C355B4AF3A4B}"/>
-    <hyperlink ref="C238" r:id="rId2" xr:uid="{EA54BCF7-DF81-4923-B8EF-0C4DB0C727F4}"/>
-    <hyperlink ref="C284" r:id="rId3" xr:uid="{A3A85B56-67C9-4C8A-91C1-14015CE48FE4}"/>
-    <hyperlink ref="C282" r:id="rId4" xr:uid="{E4B55B3A-D6EC-4BCF-9DC0-6F8413BED6D4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>